--- a/Mod4_stargazer.xlsx
+++ b/Mod4_stargazer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744E6FC5-9C7A-44F5-A283-BBA294F99DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07C113-253F-4627-8769-2F4C741744C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>lw_hora</t>
   </si>
   <si>
-    <t>lw_horaResid</t>
+    <t>lw_hora_Resid</t>
   </si>
   <si>
     <t>mujer</t>
@@ -106,7 +106,7 @@
     <t>-0.014***</t>
   </si>
   <si>
-    <t>mujerResid</t>
+    <t>Mujer_Resid</t>
   </si>
   <si>
     <t>Constant</t>
@@ -137,6 +137,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,12 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +698,7 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Mod4_stargazer.xlsx
+++ b/Mod4_stargazer.xlsx
@@ -1,21 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA40676-6896-4101-885D-AC86F5FBE777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+  <si>
+    <t>Mod4_stargazer</t>
+  </si>
+  <si>
+    <t>================</t>
+  </si>
+  <si>
+    <t>==============</t>
+  </si>
+  <si>
+    <t>===============</t>
+  </si>
+  <si>
+    <t>Dependent</t>
+  </si>
+  <si>
+    <t>variable:</t>
+  </si>
+  <si>
+    <t>-------------</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
+  <si>
+    <t>lw_hora</t>
+  </si>
+  <si>
+    <t>lw_hora_Resid</t>
+  </si>
+  <si>
+    <t>----------------</t>
+  </si>
+  <si>
+    <t>--------------</t>
+  </si>
+  <si>
+    <t>mujer</t>
+  </si>
+  <si>
+    <t>-0.142***</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>0.042***</t>
+  </si>
+  <si>
+    <t>Edad2</t>
+  </si>
+  <si>
+    <t>-0.0004***</t>
+  </si>
+  <si>
+    <t>Educ</t>
+  </si>
+  <si>
+    <t>0.147***</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>0.012***</t>
+  </si>
+  <si>
+    <t>exp2</t>
+  </si>
+  <si>
+    <t>-0.0002***</t>
+  </si>
+  <si>
+    <t>Tamaño_empresa</t>
+  </si>
+  <si>
+    <t>0.053***</t>
+  </si>
+  <si>
+    <t>Horas_trabajadas</t>
+  </si>
+  <si>
+    <t>-0.014***</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>0.151***</t>
+  </si>
+  <si>
+    <t>Estrato</t>
+  </si>
+  <si>
+    <t>0.277***</t>
+  </si>
+  <si>
+    <t>Mujer_Resid</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>6.277***</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>*p&lt;0.1; **p&lt;</t>
+  </si>
+  <si>
+    <t>0.05; ***p&lt;0.01</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,22 +198,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +297,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +349,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,305 +542,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Mod4_stargazer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>=============================================</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                     Dependent variable:     </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                 ----------------------------</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    lw_hora     lw_hora_Resid</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                      (1)            (2)     </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>---------------------------------------------</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mujer              -0.136***                 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    (0.012)                  </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                             </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edad                0.051***                 </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    (0.003)                  </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                             </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edad2              -0.0005***                </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                   (0.00004)                 </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                             </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Educ                0.247***                 </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    (0.006)                  </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                             </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">exp                 0.016***                 </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    (0.001)                  </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                             </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">exp2               -0.0002***                </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                   (0.00002)                 </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                             </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tamaño_empresa      0.063***                 </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    (0.002)                  </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                             </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Horas_trabajadas   -0.014***                 </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    (0.001)                  </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                             </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mujer_Resid                       -0.136***  </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                   (0.012)   </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                             </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Constant            6.138***       -0.000    </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    (0.071)        (0.006)   </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                             </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>---------------------------------------------</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Observations         9,785          9,785    </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R2                   0.371          0.013    </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>=============================================</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Note:             *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>-3.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>-2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="C32">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2">
+        <v>9785</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="C35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
